--- a/data/hotels_by_city/Houston/Houston_shard_185.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_185.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56707-d225964-Reviews-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,1321 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r532158670-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>225964</t>
+  </si>
+  <si>
+    <t>532158670</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r520247287-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>520247287</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Evacuation from Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>We had to evacuate and this place had availability.  This is by far the worst hotel I have ever stayed in. When we walked in there was a laundry bin catching water from the leaking roof. Going up the stairs the carpet had holes in it and the handrail was broken. Our room reeked of mildew. We could not shower because the shower head was broken.  The windows were faulty, the rain came in and was all over the window sills. We slept on blankets we brought from home, we were afraid of what was in the bed. The ice machine was broken. The breakfast area also had a leaky ceiling. They should have paid us to stay here.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We had to evacuate and this place had availability.  This is by far the worst hotel I have ever stayed in. When we walked in there was a laundry bin catching water from the leaking roof. Going up the stairs the carpet had holes in it and the handrail was broken. Our room reeked of mildew. We could not shower because the shower head was broken.  The windows were faulty, the rain came in and was all over the window sills. We slept on blankets we brought from home, we were afraid of what was in the bed. The ice machine was broken. The breakfast area also had a leaky ceiling. They should have paid us to stay here.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r493543340-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>493543340</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>On the move</t>
+  </si>
+  <si>
+    <t>I stayed because it was a good value for a week-long stay. There were a few structural things that needed to be repaired, but still a safe location.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r475323425-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>475323425</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r470984188-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>470984188</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Never wanna live here ever again</t>
+  </si>
+  <si>
+    <t>I don't know how they got aprooval for days inn all room are dirty sheets are not changed from previous guest, trash every where in the room everything broken, bad odor, and no safety staying here. Locks also broken. I check 3-4 rooms all rooms are horrible. Also middle of the night some staff member came and knocked hard on the door and said you are not sapose to stay in this room and scared me to death all because morning staff made a mistake in system. I couldn't sleep all night and I had the state test next day. I was restless and got sick to. There was bugs flying in the room. In non smoking room somebody smoked and ashes was still there they didn't even vaccume the room. Sheets were bloody and used it was looking like somebody didn't clean room and just been renting over and over just by making same bed. All rooms were like that. I rather stay in independent motel than this one. I don't know what franchise people been doing. How they are aprooving this trashy place.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I don't know how they got aprooval for days inn all room are dirty sheets are not changed from previous guest, trash every where in the room everything broken, bad odor, and no safety staying here. Locks also broken. I check 3-4 rooms all rooms are horrible. Also middle of the night some staff member came and knocked hard on the door and said you are not sapose to stay in this room and scared me to death all because morning staff made a mistake in system. I couldn't sleep all night and I had the state test next day. I was restless and got sick to. There was bugs flying in the room. In non smoking room somebody smoked and ashes was still there they didn't even vaccume the room. Sheets were bloody and used it was looking like somebody didn't clean room and just been renting over and over just by making same bed. All rooms were like that. I rather stay in independent motel than this one. I don't know what franchise people been doing. How they are aprooving this trashy place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r470893809-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>470893809</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r466649058-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>466649058</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r463067400-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>463067400</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r456049763-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>456049763</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r443835355-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>443835355</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r420815815-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>420815815</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Disappointed!!</t>
+  </si>
+  <si>
+    <t>While I appreciate that they had a vacant room and it was on the cheaper end, unfortunately you get what you pay for. Although we had a non-smoking room the entire room reeked of smoke. The room had a bloody tampon casing and wrapper in the bath tub, and trash under the beds (that was visible). Needless to say, I will never stay here again.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r420558647-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>420558647</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r390132675-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>390132675</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r383759149-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>383759149</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r378466510-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>378466510</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r376486903-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>376486903</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Disappoint</t>
+  </si>
+  <si>
+    <t>We recently stayed at your property in Sugarland/Stafford. This is the second yr I have stayed w you. Last year was not that great either. I have some pictures I would like to send you. The room was very rundown,remote didnt work,bathroom was full of mold,bath door was broken and had what looked like blood stains, and worse of all the smoke detector was missing. Needless to say we were very unhappy w our stay. For the 139$ I was charged I felt very over charged.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r372063044-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>372063044</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>OTC and private holiday</t>
+  </si>
+  <si>
+    <t>Very good hospitality experience with staff especially the Manager on duty - Ms Ashley. The rooms are good but cleaned once in 3 days, but room telephone never worked. Lighting and air-conditioning okay. We did not have animal protein as part of the complimentary breakfast menu.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r357067193-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>357067193</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>Do not stay here unless the underpass of the freeway is full! Dirty, non smoking room had years of stale smoke. Microwave must have spent the last six months at the frat house. Took an entire bottle of air freshener to breath. Ice maker only on first floor.Location is good, check in was fine.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r335469108-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>335469108</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r324965721-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>324965721</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>I slept like a little angel</t>
+  </si>
+  <si>
+    <t>When you reach the room was a freezer, I had to turn off the air conditioning, very quiet, I had no trouble finding parking is very spacious, the receptionist was very attentive and efficient, the room and bathroom were clean, the bed was very soft and slept soundly. I liked the experience so highly recommend this hotel, I wish I could eat at this restaurant Pappadeaux aside but when I left they had not already open.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r317654875-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>317654875</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>You get *less* than what you pay for ...</t>
+  </si>
+  <si>
+    <t>I booked this hotel for the discounted price. There is stench in each room as you enter. The body eventually gets used to it and one stops noticing after you stay in room for more than few minutes. The key card worked the first night. The next day, the door would not lock -- so anyone can just turn the door knob and enter. Manager assured me it's OK. The second night, door knob seemed to be fixed -- not no card keys can open it. Manager would need to use a physical key (old skewl) to open the door each time I need to enter the room. That went on for two days and finally I call it quits before checking into a different hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel for the discounted price. There is stench in each room as you enter. The body eventually gets used to it and one stops noticing after you stay in room for more than few minutes. The key card worked the first night. The next day, the door would not lock -- so anyone can just turn the door knob and enter. Manager assured me it's OK. The second night, door knob seemed to be fixed -- not no card keys can open it. Manager would need to use a physical key (old skewl) to open the door each time I need to enter the room. That went on for two days and finally I call it quits before checking into a different hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r311185448-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>311185448</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>You pay for what you get</t>
+  </si>
+  <si>
+    <t>I travelled for friends on a budget and chose this hotel. Upon checking in, the front desk woman was courteous and friendly. Checking in my room was a 180. The room was freezing and it had an unpleasant mild odor. I walked over to the AC and notIced the carpet around the AC was soaking wet. I then turned the AC into heater mode, and within 10 seconds, fumes came out and the odor of burning fibers was around. The smoke detector started ringing and I was shocked. I turned it back to how it was and the detector shut off. It was crazy and outrageous. The next morning,  house keeping knocked and asked to clean. I informed her I would leave in half an hour and she could clean. She nodded in agreement. After a day out on the city, I return to my room to find the house keeping woman never came to clean. What a bummer. The rest of the trip was average. I guess you get for what you pay for.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I travelled for friends on a budget and chose this hotel. Upon checking in, the front desk woman was courteous and friendly. Checking in my room was a 180. The room was freezing and it had an unpleasant mild odor. I walked over to the AC and notIced the carpet around the AC was soaking wet. I then turned the AC into heater mode, and within 10 seconds, fumes came out and the odor of burning fibers was around. The smoke detector started ringing and I was shocked. I turned it back to how it was and the detector shut off. It was crazy and outrageous. The next morning,  house keeping knocked and asked to clean. I informed her I would leave in half an hour and she could clean. She nodded in agreement. After a day out on the city, I return to my room to find the house keeping woman never came to clean. What a bummer. The rest of the trip was average. I guess you get for what you pay for.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r309808723-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>309808723</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>This area really had an undesirable smell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure if it was just this area or Southwestern Houston, but the breeze blowing carried a sewage smell. The air conditioning units blew the smell into the room and made the stay feel very unsanitary. The exterior of the hotel was great, and the lobby and breakfast area quite clean. The bed was comfortable. Stay at a nicer hotel that has central air if you need a room in this area. The breakfast is limited. Someone had thrown a bottle of shampoo down the drain in the sink . . . I wonder how long it has been there. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r304132463-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>304132463</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Good enough...</t>
+  </si>
+  <si>
+    <t>Great area, close to where we wanted to be.  Outside of hotel looked great, inside was just ok. Rooms were clean but very dated... bathroom look really nice and clean though.  Our stay was quiet. It was inexpensive and served our purposes. The breakfast could have been WAY better.  At least they had coffee. (and waffles). Will say that the wifi worked great! That was a plus!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r290229970-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>290229970</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r289974592-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>289974592</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Needs Updates</t>
+  </si>
+  <si>
+    <t>The carpets were filthy. The room had ceiling patches. The bathroom floor was cracked. The bathroom door was coming off of the hinges. The breakfast area was very small and not a good selection of breakfast items. This hotel was not worth the price paid. Will not stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r289344125-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>289344125</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r283203163-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>283203163</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Never again, Lord!!</t>
+  </si>
+  <si>
+    <t>Old, musty, no elevator, no bathroom light for half the day and night, 1980 zenith box TV with bad reception, rusty water in the tub, extremely low water pressure and I'm certain there was slime in the ice machine. Not to mention the license plates on my car was stolen while parked in the lot right in front of the entrance.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r282486470-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>282486470</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r279707459-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>279707459</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Days Inn after a hot day. Woke up sweating.</t>
+  </si>
+  <si>
+    <t>Bed was ok. Pillows terrible.  AC was OK when I went to sleep but I ended up sweating all night.  Didn't realize til I woke up AC was blowing warm. Breakfast was not appetizing so I went to IHOP. Front desk was fine but rate was expensive. Most of Houston hotels are expensive.  As a traveler paying this much elsewhere in the country you expect so much more.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r275352476-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>275352476</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Days Inn Sugarland/Houston/Stafford</t>
+  </si>
+  <si>
+    <t>Pleasant stay at a comfortable , accessible affordable inn.  Staff were pleasant &amp; professional and they lived up to their policy of empowering staff to take care of issues arise.  They attended to issues promptly and politely.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r271204241-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>271204241</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Not the Best</t>
+  </si>
+  <si>
+    <t>My room was dirty and poorly taken care of. Felt like those who maintained the facility didn't take much pride in their work. The headboards were attached in such a way that I kept poking myself on the screws that were sticking out. While checking to make sure there weren't bed bugs (which surprisingly I didn't find) I did find toe nails, crumbs, wrappers and dead roaches. The carpet was pulling away from the walls. The tiles in the bathroom were so cracked and in disrepair I could hear them clanking and grinding when I stepped on them. The shower plug wouldn't drain, I brought it to their attention but it was never fixed. The staff was nice, but like I said, the state of their facility was awful. I'm surprised they didn't charge by the hour. If there were any hotels with rooms open I would have left but unfortunately a big conference left them all booked. Overall, very disappointing. MoreShow less</t>
+  </si>
+  <si>
+    <t>My room was dirty and poorly taken care of. Felt like those who maintained the facility didn't take much pride in their work. The headboards were attached in such a way that I kept poking myself on the screws that were sticking out. While checking to make sure there weren't bed bugs (which surprisingly I didn't find) I did find toe nails, crumbs, wrappers and dead roaches. The carpet was pulling away from the walls. The tiles in the bathroom were so cracked and in disrepair I could hear them clanking and grinding when I stepped on them. The shower plug wouldn't drain, I brought it to their attention but it was never fixed. The staff was nice, but like I said, the state of their facility was awful. I'm surprised they didn't charge by the hour. If there were any hotels with rooms open I would have left but unfortunately a big conference left them all booked. Overall, very disappointing. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r271008461-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>271008461</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Aweful</t>
+  </si>
+  <si>
+    <t>This Days Inn was very run down.  The hotel had a terrible odor.  The lock between our room and the room next door did not work. The remote for the TV barely worked and the batteries were held in place by tape. We could not even drink the water in our room because it was yellow.  This was a HORRIBLE place!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r265559417-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>265559417</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>worst motel ever</t>
+  </si>
+  <si>
+    <t>this days inn had rude desk clerk,chair in room was ripped and stained badly,tv did not work, wanted smoking room and when I checked in was told it was a smoking room, when I went to room I asked for a smoking room and was told it would be $95.00 extra for a different room, terrible motel ,worst I was ever treated at any motel and I am a gold member, also advertise truck parking, they have none on the premise</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r261352791-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>261352791</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Denied Room</t>
+  </si>
+  <si>
+    <t>My son booked a room online with Travelocity and the hotel denied him the room because he is under 18 years of age but Days Inn &amp; Suites Sugarland charged him full price for the room that he never checked into and they will not give him a refund when I try to get his money back they will not respond.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r260412013-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>260412013</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Old, Out Dated, Unprofessional Staff</t>
+  </si>
+  <si>
+    <t>Staff never looked up when I approached the check-in bar. She acknowledged me once she completed whatever she was doing. I should have known them to turn around and walk away.Rooms are decorated in the early 80’s, nasty carpet; hair stands on the towels hanging in the bathroom.  The television is in the 80’s era as well.  Given a room on the second floor and there is no elevator, only a flight of stairs.  Tired to make waffles for breakfast and because there was no oil for the waffle iron, the waffles continued to stick – gave that process up.  Hotel cleaning staff just opens the doors without announcing themselves first or not even a knock!  Each night, I had to get a new key because my key was always deactivated.  It was a very horrible stay.  This place reminded me of a half way house for drug addicts. NEVER AGAIN!!  I would like to have a five day refund!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff never looked up when I approached the check-in bar. She acknowledged me once she completed whatever she was doing. I should have known them to turn around and walk away.Rooms are decorated in the early 80’s, nasty carpet; hair stands on the towels hanging in the bathroom.  The television is in the 80’s era as well.  Given a room on the second floor and there is no elevator, only a flight of stairs.  Tired to make waffles for breakfast and because there was no oil for the waffle iron, the waffles continued to stick – gave that process up.  Hotel cleaning staff just opens the doors without announcing themselves first or not even a knock!  Each night, I had to get a new key because my key was always deactivated.  It was a very horrible stay.  This place reminded me of a half way house for drug addicts. NEVER AGAIN!!  I would like to have a five day refund!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r253593564-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>253593564</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r251183430-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>251183430</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r249978084-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>249978084</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r240291546-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>240291546</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r239386005-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>239386005</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r235095170-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>235095170</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>So So</t>
+  </si>
+  <si>
+    <t>Hotel was in a great location of where I needed to visit in Houston. The hotel itself was something different. The floors were warped and the linoleum was not pieced together properly. It was as if they had experienced a flood recently.  The carpet was stained throughout the hotel. I would stay again, if I was by myself. I know the family would not.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r220536789-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>220536789</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r216311689-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>216311689</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>They charge big for small pets</t>
+  </si>
+  <si>
+    <t>The room was about $70. My sister-in-law inquired about a pet fee and was told there wasn't a fee. When I got to the hotel, though, I was told that it was $15 per night, per cat. That's almost half again as much to bring the cats. There was no mention of a pet fee on the hotel's website. This is a bait and switch. When I complained at the desk, I was told to talk to the manager in the morning if I wanted to cancel and get a refund. When I did, she said I would have to give a 24 hour notice to cancel, which would mean paying an extra $30 for the night AGAIN. However, I told her that I had asked to cancel the night before and was told to wait for the manager to come in. Then she refunded my other three nights. So the this hotel would rather lose money for three nights (and I had booked two rooms) instead of negotiating on a previously unstated pet fee.  That's okay. The breaksfast was mediocre at best, the rooms smelled musty, and the hallway REEKED of cigarette smoke. NO WAY would I stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was about $70. My sister-in-law inquired about a pet fee and was told there wasn't a fee. When I got to the hotel, though, I was told that it was $15 per night, per cat. That's almost half again as much to bring the cats. There was no mention of a pet fee on the hotel's website. This is a bait and switch. When I complained at the desk, I was told to talk to the manager in the morning if I wanted to cancel and get a refund. When I did, she said I would have to give a 24 hour notice to cancel, which would mean paying an extra $30 for the night AGAIN. However, I told her that I had asked to cancel the night before and was told to wait for the manager to come in. Then she refunded my other three nights. So the this hotel would rather lose money for three nights (and I had booked two rooms) instead of negotiating on a previously unstated pet fee.  That's okay. The breaksfast was mediocre at best, the rooms smelled musty, and the hallway REEKED of cigarette smoke. NO WAY would I stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r206681846-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>206681846</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r200534009-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>200534009</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r198609062-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>198609062</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>Good value in comparison</t>
+  </si>
+  <si>
+    <t>So we were in town the rodeo.. Had stayed here in the past for business and it was good, so decided to stay here again. We were checked into a room downstairs (room 102 i think). The room was definitely no frills, but then again, it was excellent for the price. The room was clean and everything functioned as expected. The carpet was new in the room, but the furniture was worn and TV was box set type. I ran into the manager in the lobby and he said they are working on getting new beds, TV's and furniture within the next 6 months. The carpet has already been replaced. After those changes,the place will be in line with the competition. All in all, i would come back. I only paid $65 for the night this time, while the competition was at least twice that. PROS: Location, no frills pricingCONS: needs more upgradingMoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley A, Manager at Days Inn &amp; Suites by Wyndham Sugarland/Stafford, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>So we were in town the rodeo.. Had stayed here in the past for business and it was good, so decided to stay here again. We were checked into a room downstairs (room 102 i think). The room was definitely no frills, but then again, it was excellent for the price. The room was clean and everything functioned as expected. The carpet was new in the room, but the furniture was worn and TV was box set type. I ran into the manager in the lobby and he said they are working on getting new beds, TV's and furniture within the next 6 months. The carpet has already been replaced. After those changes,the place will be in line with the competition. All in all, i would come back. I only paid $65 for the night this time, while the competition was at least twice that. PROS: Location, no frills pricingCONS: needs more upgradingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r198511690-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>198511690</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r195990717-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>195990717</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r195714542-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>195714542</t>
+  </si>
+  <si>
+    <t>02/28/2014</t>
+  </si>
+  <si>
+    <t>Total Let Down</t>
+  </si>
+  <si>
+    <t>From the moment I walked in it smelled like mildewy rags.  and the smell was everywhere.  everything seemed old and musky feeling and smelling.  had to kill roaches in bathroom before each bath.  Personnel seemed inconvenienced that i was there.  got a nice smile out of one person and the bath water was good and hot.  not much else to say. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Ashley A, Manager at Days Inn &amp; Suites by Wyndham Sugarland/Stafford, responded to this reviewResponded March 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2014</t>
+  </si>
+  <si>
+    <t>From the moment I walked in it smelled like mildewy rags.  and the smell was everywhere.  everything seemed old and musky feeling and smelling.  had to kill roaches in bathroom before each bath.  Personnel seemed inconvenienced that i was there.  got a nice smile out of one person and the bath water was good and hot.  not much else to say. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r193362819-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>193362819</t>
+  </si>
+  <si>
+    <t>02/07/2014</t>
+  </si>
+  <si>
+    <t>ROACHES ON MY NIGHT STAND!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>This hotel looked a little dated on the outside. Staff was nice upon arrival. The room smelled of strong cleaning products. The furniture was worn around the edges but the room wasn't to bad so I thought upon first impression and I was exhausted. The bathroom looked like it had been renovated. It was the nicest thing about the room until I took a shower and the tub didn't drain well. The bed was HORRIBLE. It was EXTREMELY FIRM which is not for me. I woke up in the middle of the night with MANY TINY ROACHES on my night stand!!!!! I put one in an empty water bottle on a small piece of cardboard put the lid on it and took it to the front desk. The clerk wouldn't take the water bottle. When I asked to speak with the manager I was told the manager Ashley wasn't there and to call the next day and I would be "compensated" for my "problem". I LEFT THE WATER BOTTLE SITTING WITH THE ROACHES IN IT ON THE FRONT DESK!!! I called the next day (today) and found out she is out of town for the next week!!!! DO NOT STAY IN THIS HOTEL!!!!!!!!!! I gave service a poor rating only because now I cannot get in touch with the hotel manager. Overall the staff was polite.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel looked a little dated on the outside. Staff was nice upon arrival. The room smelled of strong cleaning products. The furniture was worn around the edges but the room wasn't to bad so I thought upon first impression and I was exhausted. The bathroom looked like it had been renovated. It was the nicest thing about the room until I took a shower and the tub didn't drain well. The bed was HORRIBLE. It was EXTREMELY FIRM which is not for me. I woke up in the middle of the night with MANY TINY ROACHES on my night stand!!!!! I put one in an empty water bottle on a small piece of cardboard put the lid on it and took it to the front desk. The clerk wouldn't take the water bottle. When I asked to speak with the manager I was told the manager Ashley wasn't there and to call the next day and I would be "compensated" for my "problem". I LEFT THE WATER BOTTLE SITTING WITH THE ROACHES IN IT ON THE FRONT DESK!!! I called the next day (today) and found out she is out of town for the next week!!!! DO NOT STAY IN THIS HOTEL!!!!!!!!!! I gave service a poor rating only because now I cannot get in touch with the hotel manager. Overall the staff was polite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r185537706-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>185537706</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Ashley A, Manager at Days Inn &amp; Suites by Wyndham Sugarland/Stafford, responded to this reviewResponded February 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r184171932-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>184171932</t>
+  </si>
+  <si>
+    <t>11/09/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r183105267-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>183105267</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r178075949-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>178075949</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Ashley A, Manager at Days Inn &amp; Suites by Wyndham Sugarland/Stafford, responded to this reviewResponded September 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r176782323-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>176782323</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Ashley A, Manager at Days Inn &amp; Suites by Wyndham Sugarland/Stafford, responded to this reviewResponded September 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r176068188-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>176068188</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r172045333-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>172045333</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>HoustonHotels, Manager at Days Inn &amp; Suites by Wyndham Sugarland/Stafford, responded to this reviewResponded August 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r171610844-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>171610844</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>Dirty, broken down, and smelly</t>
+  </si>
+  <si>
+    <t>Upon entering the lobby you're blasted with a moldy smell and the rooms are same. My coworker door could be opened without a key. My door could be opened with a knife. TV's in both rooms didn't work. Beds were hard and pillows smelled.  The rooms, sheets, floors, everything was dirty. The parking lot has contained several screws just waiting to get ran over. Ice machine was out. Fridge was not working properly. I could go on and on. My suggestion is spend the extra $10 and go somewhere where your not afraid to fall asleep. MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon entering the lobby you're blasted with a moldy smell and the rooms are same. My coworker door could be opened without a key. My door could be opened with a knife. TV's in both rooms didn't work. Beds were hard and pillows smelled.  The rooms, sheets, floors, everything was dirty. The parking lot has contained several screws just waiting to get ran over. Ice machine was out. Fridge was not working properly. I could go on and on. My suggestion is spend the extra $10 and go somewhere where your not afraid to fall asleep. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r170307361-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>170307361</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Ashley A, Manager at Days Inn &amp; Suites by Wyndham Sugarland/Stafford, responded to this reviewResponded August 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r166030772-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>166030772</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>The hotel was clean, but there were several missing amenities - TV remote, elevator, and working ice machine.  I'm not sure if they had WiFi. It wasn't mentioned at check in, and I didn't see anything mentioned in the room.  Our visit was short, so it wasn't a huge inconvenience.  A comfortable night sleep at a reasonable rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>The hotel was clean, but there were several missing amenities - TV remote, elevator, and working ice machine.  I'm not sure if they had WiFi. It wasn't mentioned at check in, and I didn't see anything mentioned in the room.  Our visit was short, so it wasn't a huge inconvenience.  A comfortable night sleep at a reasonable rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r165201341-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>165201341</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r165047469-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>165047469</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Last reserve if possible</t>
+  </si>
+  <si>
+    <t>Booked hotel last minute due to emergency. Was skeptical after all the reviews. Reviews didn't lie. For the money you spent here, its not worth it.  I never seen a hotel that is 2 stars that have a policy that you check in time is 4 PM. I can understand if its a 4-5 stars hotel, but for a small property, check in time should be at 2 PM. Upon arrival, front desk staff made us wait 15 minutes before handling us over our keys. Hotel hallway smell like smoke and A/C unit in hallway doesn't work..so it was extremely hot walking to our room. Room A/C works well, BUT the knob is broken, so you are stuck on either HIGH COOL or HIGH HOT, no medium. Water pressure in restroom is a joke, very weak. When turning on shower head, it made a low screeching noise. Find other place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked hotel last minute due to emergency. Was skeptical after all the reviews. Reviews didn't lie. For the money you spent here, its not worth it.  I never seen a hotel that is 2 stars that have a policy that you check in time is 4 PM. I can understand if its a 4-5 stars hotel, but for a small property, check in time should be at 2 PM. Upon arrival, front desk staff made us wait 15 minutes before handling us over our keys. Hotel hallway smell like smoke and A/C unit in hallway doesn't work..so it was extremely hot walking to our room. Room A/C works well, BUT the knob is broken, so you are stuck on either HIGH COOL or HIGH HOT, no medium. Water pressure in restroom is a joke, very weak. When turning on shower head, it made a low screeching noise. Find other place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r162370422-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>162370422</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r161744156-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>161744156</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r160872466-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>160872466</t>
+  </si>
+  <si>
+    <t>05/16/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r160133646-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>160133646</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Events happen everywhere!</t>
+  </si>
+  <si>
+    <t>I stay at these hotels around Texas and this is the first time a front desk staff is so sick and rude. Otherwise the stay would have been pleasant and good.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at these hotels around Texas and this is the first time a front desk staff is so sick and rude. Otherwise the stay would have been pleasant and good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r159342234-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>159342234</t>
+  </si>
+  <si>
+    <t>05/01/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r158717927-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>158717927</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r156737992-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>156737992</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>Very disappointed with this stay.  The room was in a very...</t>
+  </si>
+  <si>
+    <t>Very disappointed with this stay.  The room was in a very poor state of repair especially the bathroom.  The ceiling showed signs of extensive water damage, no stopper for the sink,broken tiles, noisy fan, toilet kept running....  Just so many problems.  Looks to me like a very poorly managed place.  Where is the pride? MoreShow less</t>
+  </si>
+  <si>
+    <t>Very disappointed with this stay.  The room was in a very poor state of repair especially the bathroom.  The ceiling showed signs of extensive water damage, no stopper for the sink,broken tiles, noisy fan, toilet kept running....  Just so many problems.  Looks to me like a very poorly managed place.  Where is the pride? More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r156615111-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>156615111</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>Needs to be gutted and renovated!</t>
+  </si>
+  <si>
+    <t>If you're on a budget, trying to save per diem or just need a place to sleep for the night, this is the hotel for you.  Don't be fooled by the professional photos posted. At one time, I'm sure this place was a great hotel to stay in, but it appears that maintenance and care has fallen to the wayside as this hotel is in need of renovation.  This was the only hotel we could book for four nights in a row. I had never stayed here so I gave it a shot. The older lady at the front desk was very friendly. She made check-in easy and quick. The room we stayed in wasn't anything to rave about. I was glad it had Wi-Fi and a mini fridge. We had asked the other front desk personnel about changing out the bathroom light. Each time, they assured us they would have someone look at it. The bathroom light flickered almost as badly as a strobe light! The floors are weak and creak when people walk around. The complimentary breakfast wasn't all that great either.  They put out some Otis Spunkmeyer muffins, a few danishes, some fruit, and you could make your own waffles in the shape of Texas.On the outside, it may look nice, but once inside you can tell exactly how dirty and rundown it is. It's past it's time and needs to be gutted and renovated.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>If you're on a budget, trying to save per diem or just need a place to sleep for the night, this is the hotel for you.  Don't be fooled by the professional photos posted. At one time, I'm sure this place was a great hotel to stay in, but it appears that maintenance and care has fallen to the wayside as this hotel is in need of renovation.  This was the only hotel we could book for four nights in a row. I had never stayed here so I gave it a shot. The older lady at the front desk was very friendly. She made check-in easy and quick. The room we stayed in wasn't anything to rave about. I was glad it had Wi-Fi and a mini fridge. We had asked the other front desk personnel about changing out the bathroom light. Each time, they assured us they would have someone look at it. The bathroom light flickered almost as badly as a strobe light! The floors are weak and creak when people walk around. The complimentary breakfast wasn't all that great either.  They put out some Otis Spunkmeyer muffins, a few danishes, some fruit, and you could make your own waffles in the shape of Texas.On the outside, it may look nice, but once inside you can tell exactly how dirty and rundown it is. It's past it's time and needs to be gutted and renovated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r154750639-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>154750639</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r146173127-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>146173127</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r145909684-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>145909684</t>
+  </si>
+  <si>
+    <t>11/21/2012</t>
+  </si>
+  <si>
+    <t>great night sleep!</t>
+  </si>
+  <si>
+    <t>breakfast was the only loss of points. besides that everything was wonderful. the muffins were dry, the waffles did not cook all the way through, and the juices were watery. other than the food i had no complaints at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>breakfast was the only loss of points. besides that everything was wonderful. the muffins were dry, the waffles did not cook all the way through, and the juices were watery. other than the food i had no complaints at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r144784321-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>144784321</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r135534486-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>135534486</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>You have to put up with a few things</t>
+  </si>
+  <si>
+    <t>I was in this area because my company had an annual meeting at an office nearby.  This trip was paid for by my company, and we are trying to save money, so I chose this hotel as the cheapest chain hotel in the area.  But I had to put up with a few things.
+The good;  
+It is inexpensive (my company AMEX rate was $64 a night)  the room was clean, and the TV had HBO.  Micro and fridge, if I remember.  The window actually opened, which I think was neat.  They had a few workout machines near the lobby, but I like to run outdoors.  This is possible, as there are sidewalks almost everywhere, and crosswalks at the lights.  Parking was sufficient.  Many restaurants nearby (hotel actually next to Pappadeaux).  Walmart at one freeway exit to the north.  You could even reach it using the service road.
+The not so good:   
+The first night I arrived I told them their wireless internet did not work in the room.  Luckily, I was at the end of the building and was able to log into the hotel next door.  3 days I told them about this, 3 days the system did not work.  I know they had someone working on it the 3rd day, but it still wasn't working when I left.  And they had no high speed connection in the room, either.  
+The breakfast was very minimal.  But they did...I was in this area because my company had an annual meeting at an office nearby.  This trip was paid for by my company, and we are trying to save money, so I chose this hotel as the cheapest chain hotel in the area.  But I had to put up with a few things.The good;  It is inexpensive (my company AMEX rate was $64 a night)  the room was clean, and the TV had HBO.  Micro and fridge, if I remember.  The window actually opened, which I think was neat.  They had a few workout machines near the lobby, but I like to run outdoors.  This is possible, as there are sidewalks almost everywhere, and crosswalks at the lights.  Parking was sufficient.  Many restaurants nearby (hotel actually next to Pappadeaux).  Walmart at one freeway exit to the north.  You could even reach it using the service road.The not so good:   The first night I arrived I told them their wireless internet did not work in the room.  Luckily, I was at the end of the building and was able to log into the hotel next door.  3 days I told them about this, 3 days the system did not work.  I know they had someone working on it the 3rd day, but it still wasn't working when I left.  And they had no high speed connection in the room, either.  The breakfast was very minimal.  But they did provide fresh fruit, which helped.They had no place to print from a computer.  I was told they used to, but it was 'down'.  Two story hotel.  No elevator.  I don't need that, but some people might.Funny (if you think so):Don't sleep nude.  The night clerk walked into my room at 1:30am.  She mumbled something about "it was listed as vacant" as she looked at a piece of paper, then left.  I travel a lot.  I've had similar things happen in the past, at other hotels.  Luckily, it was a hotel employee (at other hotels, I've had strangers walk into my room, having been given the key by the front desk, by mistake of course).  But I had booked a 3 day stay here.  My room should not have been listed as 'vacant'.But, in the end, I can recommend the hotel for the cost, compared to those nearby.  I really don't blame any hotel staff.  They try.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I was in this area because my company had an annual meeting at an office nearby.  This trip was paid for by my company, and we are trying to save money, so I chose this hotel as the cheapest chain hotel in the area.  But I had to put up with a few things.
+The good;  
+It is inexpensive (my company AMEX rate was $64 a night)  the room was clean, and the TV had HBO.  Micro and fridge, if I remember.  The window actually opened, which I think was neat.  They had a few workout machines near the lobby, but I like to run outdoors.  This is possible, as there are sidewalks almost everywhere, and crosswalks at the lights.  Parking was sufficient.  Many restaurants nearby (hotel actually next to Pappadeaux).  Walmart at one freeway exit to the north.  You could even reach it using the service road.
+The not so good:   
+The first night I arrived I told them their wireless internet did not work in the room.  Luckily, I was at the end of the building and was able to log into the hotel next door.  3 days I told them about this, 3 days the system did not work.  I know they had someone working on it the 3rd day, but it still wasn't working when I left.  And they had no high speed connection in the room, either.  
+The breakfast was very minimal.  But they did...I was in this area because my company had an annual meeting at an office nearby.  This trip was paid for by my company, and we are trying to save money, so I chose this hotel as the cheapest chain hotel in the area.  But I had to put up with a few things.The good;  It is inexpensive (my company AMEX rate was $64 a night)  the room was clean, and the TV had HBO.  Micro and fridge, if I remember.  The window actually opened, which I think was neat.  They had a few workout machines near the lobby, but I like to run outdoors.  This is possible, as there are sidewalks almost everywhere, and crosswalks at the lights.  Parking was sufficient.  Many restaurants nearby (hotel actually next to Pappadeaux).  Walmart at one freeway exit to the north.  You could even reach it using the service road.The not so good:   The first night I arrived I told them their wireless internet did not work in the room.  Luckily, I was at the end of the building and was able to log into the hotel next door.  3 days I told them about this, 3 days the system did not work.  I know they had someone working on it the 3rd day, but it still wasn't working when I left.  And they had no high speed connection in the room, either.  The breakfast was very minimal.  But they did provide fresh fruit, which helped.They had no place to print from a computer.  I was told they used to, but it was 'down'.  Two story hotel.  No elevator.  I don't need that, but some people might.Funny (if you think so):Don't sleep nude.  The night clerk walked into my room at 1:30am.  She mumbled something about "it was listed as vacant" as she looked at a piece of paper, then left.  I travel a lot.  I've had similar things happen in the past, at other hotels.  Luckily, it was a hotel employee (at other hotels, I've had strangers walk into my room, having been given the key by the front desk, by mistake of course).  But I had booked a 3 day stay here.  My room should not have been listed as 'vacant'.But, in the end, I can recommend the hotel for the cost, compared to those nearby.  I really don't blame any hotel staff.  They try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r134778079-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>134778079</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>Needs new management</t>
+  </si>
+  <si>
+    <t>We always stay at Days Inn in several locations and have always had a nice stay.  This Days Inn was the exception to the rule. The hotel maintenance is way below standard.  The toilet seat was hanging on and had to be replaced but did not happen until 9:00pm at night.  The towel rack fell down when I reached for a towel. The in-room coffee maker did not work and the television selection were minimal at best.  Breakfast was another disappointment, the microwave did not work. Hotel personnel working on the roof hovered in the breakfast area and then were rude.  The wall way floor carpet was dirty and the floor was creeky.  My daughter's room had two broken doors and the safety lock on the door was broken and unusable.  We were very disappointed and will never stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We always stay at Days Inn in several locations and have always had a nice stay.  This Days Inn was the exception to the rule. The hotel maintenance is way below standard.  The toilet seat was hanging on and had to be replaced but did not happen until 9:00pm at night.  The towel rack fell down when I reached for a towel. The in-room coffee maker did not work and the television selection were minimal at best.  Breakfast was another disappointment, the microwave did not work. Hotel personnel working on the roof hovered in the breakfast area and then were rude.  The wall way floor carpet was dirty and the floor was creeky.  My daughter's room had two broken doors and the safety lock on the door was broken and unusable.  We were very disappointed and will never stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r132390324-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>132390324</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Mr. Clean lives here.</t>
+  </si>
+  <si>
+    <t>Very clean place.Staff is very friendly especially the guy that works during the night shift.Rooms are kept very clean.The only problem was that they didn't have a person to help with the luggage when we arrived, and there is not elevator to the second floor, so you have to carry it to your room.But for the price the place is very good .Very quiet.I would come back.Stayed August 2011, traveled with familyMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Very clean place.Staff is very friendly especially the guy that works during the night shift.Rooms are kept very clean.The only problem was that they didn't have a person to help with the luggage when we arrived, and there is not elevator to the second floor, so you have to carry it to your room.But for the price the place is very good .Very quiet.I would come back.Stayed August 2011, traveled with familyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r117777890-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>117777890</t>
+  </si>
+  <si>
+    <t>09/06/2011</t>
+  </si>
+  <si>
+    <t>Never ever come back!!!</t>
+  </si>
+  <si>
+    <t>I was staying in Days Inn with my families for visiting Houston. The trip must be a happy and warm-gathering family trip outside of home, but it was all screwed up by the hotel. When we arrived after a long international flight, there was no any single room for us upon the clerk said the housekeeper were too busy to clean up. But it cant be a reason why we cant get room with our reservation. Then we found a bounch of cockroaches in the room, seems like we were in a roach-place. We called the front desk but the lady said she was afraid of cockroaches and asked us to wait until another room is available for us. She even refused to come and have a look. We asked the manager's name and number and wanted to get refund of the rest of days. but the same lady told us it is impossilbe to get money back because it is full-payment advanced. We are very disapponted about this hotel and shame who run this business. I have been working in the hotel for more than 10 years, this is my first time to be treated unrespectfully. I think they dont have any ideas of running a hotel business, they dont have proper system, proper training for the clerks even the managers. NO RECOMMEND IT. I dont care how little they charge, the days inn is nothing worthy of money.!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I was staying in Days Inn with my families for visiting Houston. The trip must be a happy and warm-gathering family trip outside of home, but it was all screwed up by the hotel. When we arrived after a long international flight, there was no any single room for us upon the clerk said the housekeeper were too busy to clean up. But it cant be a reason why we cant get room with our reservation. Then we found a bounch of cockroaches in the room, seems like we were in a roach-place. We called the front desk but the lady said she was afraid of cockroaches and asked us to wait until another room is available for us. She even refused to come and have a look. We asked the manager's name and number and wanted to get refund of the rest of days. but the same lady told us it is impossilbe to get money back because it is full-payment advanced. We are very disapponted about this hotel and shame who run this business. I have been working in the hotel for more than 10 years, this is my first time to be treated unrespectfully. I think they dont have any ideas of running a hotel business, they dont have proper system, proper training for the clerks even the managers. NO RECOMMEND IT. I dont care how little they charge, the days inn is nothing worthy of money.!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r117279284-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>117279284</t>
+  </si>
+  <si>
+    <t>08/26/2011</t>
+  </si>
+  <si>
+    <t>Home of Cockroaches</t>
+  </si>
+  <si>
+    <t>The  Days Inn was at a convienient location outside of Houston.  The check-in was easy and quick.  We went to our room and upon inspection, we discovered some stains on the bedsheets.  We called the front desk, and they sent a lady to take a look.  We asked the lady for another room, and we were sent to a room down the hallway.  The room had a strong air freshener smell, and appeared clean enough.  However, when we took a look at the bathroom, we found an 1 inch baby cockroach crawling on the floor.  We called the front desk again, and the same lady came up.  She stepped on the cockroach and killed it, and we were moved to another room.  At that room, we opened one of the drawers and we discovered something that appeared to be a cockroach eggsack, but we were not certain.  However, we had had enough and we checked out and moved to another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The  Days Inn was at a convienient location outside of Houston.  The check-in was easy and quick.  We went to our room and upon inspection, we discovered some stains on the bedsheets.  We called the front desk, and they sent a lady to take a look.  We asked the lady for another room, and we were sent to a room down the hallway.  The room had a strong air freshener smell, and appeared clean enough.  However, when we took a look at the bathroom, we found an 1 inch baby cockroach crawling on the floor.  We called the front desk again, and the same lady came up.  She stepped on the cockroach and killed it, and we were moved to another room.  At that room, we opened one of the drawers and we discovered something that appeared to be a cockroach eggsack, but we were not certain.  However, we had had enough and we checked out and moved to another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r117123789-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>117123789</t>
+  </si>
+  <si>
+    <t>08/23/2011</t>
+  </si>
+  <si>
+    <t>Mr.Cean lives here.</t>
+  </si>
+  <si>
+    <t>Very clean place.Staff is very friendly especially the guy that works during the night shift.Rooms are kept very clean.The only problem was that they didn't have a person to help with the luggage when we arrived, and there is not elevator to the second floor, so you    have to carry it to your room.But for the price the place is very good .Very quiet.I would come back.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r86865256-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>86865256</t>
+  </si>
+  <si>
+    <t>11/12/2010</t>
+  </si>
+  <si>
+    <t>TERRIBLE!!! WRONG CHOICE!!!!!</t>
+  </si>
+  <si>
+    <t>This place is awful. I have been staying for 4 days while looking for a new apt. And all I have got to say is TERRIBLE!!! They have a breakfast which is served very early morning, I have been late for 2 min and they said I am not allowed to touch anything!! People who are working there are very unprofessional. Also the bedsheets were not clean, which is GROSS. The air conditioner was leaking and did not work properly, as well as the window was broken. The door key did not work properly as well. Dont waste your time and money on this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>This place is awful. I have been staying for 4 days while looking for a new apt. And all I have got to say is TERRIBLE!!! They have a breakfast which is served very early morning, I have been late for 2 min and they said I am not allowed to touch anything!! People who are working there are very unprofessional. Also the bedsheets were not clean, which is GROSS. The air conditioner was leaking and did not work properly, as well as the window was broken. The door key did not work properly as well. Dont waste your time and money on this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r79660573-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>79660573</t>
+  </si>
+  <si>
+    <t>09/15/2010</t>
+  </si>
+  <si>
+    <t>Excellent place to stay</t>
+  </si>
+  <si>
+    <t>very clean, affordable, nice area, all together perfect</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r37877162-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>37877162</t>
+  </si>
+  <si>
+    <t>08/16/2009</t>
+  </si>
+  <si>
+    <t>Old reviews don't do this place justice</t>
+  </si>
+  <si>
+    <t>After the headache at Sun Suites (see review), I came to this hotel leery. It has been revamped and is nothing like the old reviews. The employees take pride in their job and it shows. The rooms did not smell musty as had some places I visited in the Houston area. The front desk was very helpful and cheerful and made my family feel very welcomed. The rooms were very clean and nothing collected in the out of sight areas. The bathroom was super clean, as you would expect to see in a 5 star hotel. In fact, this place looked better than some of the 5-stars I have visited.All of the employees I came across were very friendly, even the gentleman doing the outdoor duties like cleaning the parking lot of the mess the previous evening storm had left. Even the parking lot was clean!  Housekeeping were very attentive, and never bothered me while I was there. When I left for the day, they greeted me and made sure I had everything I needed. My travel companion stayed there for the day, and they knocked just to make sure she still had clean towels. Thumbs up!There was construction going on, or so said the signs on the stairway. I forgave any dust that might have been flying, but I never saw any.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>After the headache at Sun Suites (see review), I came to this hotel leery. It has been revamped and is nothing like the old reviews. The employees take pride in their job and it shows. The rooms did not smell musty as had some places I visited in the Houston area. The front desk was very helpful and cheerful and made my family feel very welcomed. The rooms were very clean and nothing collected in the out of sight areas. The bathroom was super clean, as you would expect to see in a 5 star hotel. In fact, this place looked better than some of the 5-stars I have visited.All of the employees I came across were very friendly, even the gentleman doing the outdoor duties like cleaning the parking lot of the mess the previous evening storm had left. Even the parking lot was clean!  Housekeeping were very attentive, and never bothered me while I was there. When I left for the day, they greeted me and made sure I had everything I needed. My travel companion stayed there for the day, and they knocked just to make sure she still had clean towels. Thumbs up!There was construction going on, or so said the signs on the stairway. I forgave any dust that might have been flying, but I never saw any.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225964-r14923247-Days_Inn_Suites_by_Wyndham_Sugarland_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>14923247</t>
+  </si>
+  <si>
+    <t>04/09/2008</t>
+  </si>
+  <si>
+    <t>Above average of that chain</t>
+  </si>
+  <si>
+    <t>Stayed for one night after arriving inbound from Amsterdam. I chose this hotel also for location, as it gets you out of the Houston-bound morning traffic when going south on US-59.The structure appeared to be fairly new. My room (105) was well kept and larger than normal for that chain. A/C was silent, lots of drawers to place belongings. WiFi (complimentary) worked instantly. Car Park is sufficiently large. No noise could be heard from nearby US-59 as other buildings are absorbing the noise. Check-in &amp;-out were very efficient.</t>
+  </si>
+  <si>
+    <t>April 2008</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1856,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1888,5610 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>136</v>
+      </c>
+      <c r="O20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" t="s">
+        <v>140</v>
+      </c>
+      <c r="L21" t="s">
+        <v>141</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>142</v>
+      </c>
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" t="s">
+        <v>153</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>154</v>
+      </c>
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" t="s">
+        <v>165</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>169</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>171</v>
+      </c>
+      <c r="J27" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" t="s">
+        <v>174</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>169</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>169</v>
+      </c>
+      <c r="O28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29" t="s">
+        <v>182</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>183</v>
+      </c>
+      <c r="O29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>185</v>
+      </c>
+      <c r="J30" t="s">
+        <v>186</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>183</v>
+      </c>
+      <c r="O30" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" t="s">
+        <v>190</v>
+      </c>
+      <c r="L31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>183</v>
+      </c>
+      <c r="O31" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>193</v>
+      </c>
+      <c r="J32" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" t="s">
+        <v>195</v>
+      </c>
+      <c r="L32" t="s">
+        <v>196</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>197</v>
+      </c>
+      <c r="O32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>199</v>
+      </c>
+      <c r="J33" t="s">
+        <v>200</v>
+      </c>
+      <c r="K33" t="s">
+        <v>201</v>
+      </c>
+      <c r="L33" t="s">
+        <v>202</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>197</v>
+      </c>
+      <c r="O33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" t="s">
+        <v>208</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>197</v>
+      </c>
+      <c r="O34" t="s">
+        <v>100</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" t="s">
+        <v>211</v>
+      </c>
+      <c r="K35" t="s">
+        <v>212</v>
+      </c>
+      <c r="L35" t="s">
+        <v>213</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>214</v>
+      </c>
+      <c r="O35" t="s">
+        <v>74</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>216</v>
+      </c>
+      <c r="J36" t="s">
+        <v>217</v>
+      </c>
+      <c r="K36" t="s">
+        <v>218</v>
+      </c>
+      <c r="L36" t="s">
+        <v>219</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>220</v>
+      </c>
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>222</v>
+      </c>
+      <c r="J37" t="s">
+        <v>223</v>
+      </c>
+      <c r="K37" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" t="s">
+        <v>225</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>220</v>
+      </c>
+      <c r="O37" t="s">
+        <v>64</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38" t="s">
+        <v>229</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>230</v>
+      </c>
+      <c r="O38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>232</v>
+      </c>
+      <c r="J39" t="s">
+        <v>233</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>234</v>
+      </c>
+      <c r="O39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40" t="s">
+        <v>237</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>234</v>
+      </c>
+      <c r="O40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J41" t="s">
+        <v>240</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>241</v>
+      </c>
+      <c r="O41" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>243</v>
+      </c>
+      <c r="J42" t="s">
+        <v>244</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s">
+        <v>245</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>241</v>
+      </c>
+      <c r="O42" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>248</v>
+      </c>
+      <c r="J43" t="s">
+        <v>249</v>
+      </c>
+      <c r="K43" t="s">
+        <v>250</v>
+      </c>
+      <c r="L43" t="s">
+        <v>251</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>252</v>
+      </c>
+      <c r="O43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>254</v>
+      </c>
+      <c r="J44" t="s">
+        <v>255</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>256</v>
+      </c>
+      <c r="O44" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>257</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>258</v>
+      </c>
+      <c r="J45" t="s">
+        <v>259</v>
+      </c>
+      <c r="K45" t="s">
+        <v>260</v>
+      </c>
+      <c r="L45" t="s">
+        <v>261</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>256</v>
+      </c>
+      <c r="O45" t="s">
+        <v>51</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>263</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>264</v>
+      </c>
+      <c r="J46" t="s">
+        <v>265</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>266</v>
+      </c>
+      <c r="O46" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>268</v>
+      </c>
+      <c r="J47" t="s">
+        <v>269</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>270</v>
+      </c>
+      <c r="O47" t="s">
+        <v>74</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>271</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>272</v>
+      </c>
+      <c r="J48" t="s">
+        <v>273</v>
+      </c>
+      <c r="K48" t="s">
+        <v>274</v>
+      </c>
+      <c r="L48" t="s">
+        <v>275</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>270</v>
+      </c>
+      <c r="O48" t="s">
+        <v>100</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>276</v>
+      </c>
+      <c r="X48" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>279</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>280</v>
+      </c>
+      <c r="J49" t="s">
+        <v>281</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>245</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>270</v>
+      </c>
+      <c r="O49" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>282</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>283</v>
+      </c>
+      <c r="J50" t="s">
+        <v>284</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>285</v>
+      </c>
+      <c r="O50" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>286</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>287</v>
+      </c>
+      <c r="J51" t="s">
+        <v>288</v>
+      </c>
+      <c r="K51" t="s">
+        <v>289</v>
+      </c>
+      <c r="L51" t="s">
+        <v>290</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>291</v>
+      </c>
+      <c r="O51" t="s">
+        <v>74</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>292</v>
+      </c>
+      <c r="X51" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>295</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>296</v>
+      </c>
+      <c r="J52" t="s">
+        <v>297</v>
+      </c>
+      <c r="K52" t="s">
+        <v>298</v>
+      </c>
+      <c r="L52" t="s">
+        <v>299</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>291</v>
+      </c>
+      <c r="O52" t="s">
+        <v>74</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>301</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>302</v>
+      </c>
+      <c r="J53" t="s">
+        <v>303</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>245</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>304</v>
+      </c>
+      <c r="O53" t="s">
+        <v>100</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>305</v>
+      </c>
+      <c r="X53" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>307</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>308</v>
+      </c>
+      <c r="J54" t="s">
+        <v>309</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>245</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>304</v>
+      </c>
+      <c r="O54" t="s">
+        <v>74</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>305</v>
+      </c>
+      <c r="X54" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>310</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>311</v>
+      </c>
+      <c r="J55" t="s">
+        <v>312</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s">
+        <v>245</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>313</v>
+      </c>
+      <c r="O55" t="s">
+        <v>64</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>305</v>
+      </c>
+      <c r="X55" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>314</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>315</v>
+      </c>
+      <c r="J56" t="s">
+        <v>316</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s">
+        <v>245</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>317</v>
+      </c>
+      <c r="O56" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>318</v>
+      </c>
+      <c r="X56" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>320</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>321</v>
+      </c>
+      <c r="J57" t="s">
+        <v>322</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>245</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>317</v>
+      </c>
+      <c r="O57" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>323</v>
+      </c>
+      <c r="X57" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>326</v>
+      </c>
+      <c r="J58" t="s">
+        <v>327</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s">
+        <v>245</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>317</v>
+      </c>
+      <c r="O58" t="s">
+        <v>78</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>323</v>
+      </c>
+      <c r="X58" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>328</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>329</v>
+      </c>
+      <c r="J59" t="s">
+        <v>330</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>245</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>331</v>
+      </c>
+      <c r="O59" t="s">
+        <v>51</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>332</v>
+      </c>
+      <c r="X59" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>334</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>335</v>
+      </c>
+      <c r="J60" t="s">
+        <v>336</v>
+      </c>
+      <c r="K60" t="s">
+        <v>337</v>
+      </c>
+      <c r="L60" t="s">
+        <v>338</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>332</v>
+      </c>
+      <c r="X60" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>340</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>341</v>
+      </c>
+      <c r="J61" t="s">
+        <v>342</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s">
+        <v>245</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>343</v>
+      </c>
+      <c r="O61" t="s">
+        <v>64</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>344</v>
+      </c>
+      <c r="X61" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>346</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>347</v>
+      </c>
+      <c r="J62" t="s">
+        <v>348</v>
+      </c>
+      <c r="K62" t="s">
+        <v>349</v>
+      </c>
+      <c r="L62" t="s">
+        <v>350</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>351</v>
+      </c>
+      <c r="O62" t="s">
+        <v>74</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>344</v>
+      </c>
+      <c r="X62" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>353</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>354</v>
+      </c>
+      <c r="J63" t="s">
+        <v>355</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s">
+        <v>245</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>351</v>
+      </c>
+      <c r="O63" t="s">
+        <v>74</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>344</v>
+      </c>
+      <c r="X63" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>356</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>357</v>
+      </c>
+      <c r="J64" t="s">
+        <v>358</v>
+      </c>
+      <c r="K64" t="s">
+        <v>359</v>
+      </c>
+      <c r="L64" t="s">
+        <v>360</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>351</v>
+      </c>
+      <c r="O64" t="s">
+        <v>74</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>344</v>
+      </c>
+      <c r="X64" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>362</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>363</v>
+      </c>
+      <c r="J65" t="s">
+        <v>364</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s">
+        <v>245</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>365</v>
+      </c>
+      <c r="O65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>344</v>
+      </c>
+      <c r="X65" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>366</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>367</v>
+      </c>
+      <c r="J66" t="s">
+        <v>368</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>245</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>365</v>
+      </c>
+      <c r="O66" t="s">
+        <v>51</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>344</v>
+      </c>
+      <c r="X66" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>369</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>370</v>
+      </c>
+      <c r="J67" t="s">
+        <v>371</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s">
+        <v>245</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>365</v>
+      </c>
+      <c r="O67" t="s">
+        <v>51</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>344</v>
+      </c>
+      <c r="X67" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>372</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>373</v>
+      </c>
+      <c r="J68" t="s">
+        <v>374</v>
+      </c>
+      <c r="K68" t="s">
+        <v>375</v>
+      </c>
+      <c r="L68" t="s">
+        <v>376</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>365</v>
+      </c>
+      <c r="O68" t="s">
+        <v>74</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>344</v>
+      </c>
+      <c r="X68" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>378</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>379</v>
+      </c>
+      <c r="J69" t="s">
+        <v>380</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s">
+        <v>245</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>381</v>
+      </c>
+      <c r="O69" t="s">
+        <v>74</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>344</v>
+      </c>
+      <c r="X69" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>382</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>383</v>
+      </c>
+      <c r="J70" t="s">
+        <v>384</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s">
+        <v>245</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>381</v>
+      </c>
+      <c r="O70" t="s">
+        <v>51</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>344</v>
+      </c>
+      <c r="X70" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>385</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>386</v>
+      </c>
+      <c r="J71" t="s">
+        <v>387</v>
+      </c>
+      <c r="K71" t="s">
+        <v>388</v>
+      </c>
+      <c r="L71" t="s">
+        <v>389</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>381</v>
+      </c>
+      <c r="O71" t="s">
+        <v>100</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>344</v>
+      </c>
+      <c r="X71" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>391</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>392</v>
+      </c>
+      <c r="J72" t="s">
+        <v>393</v>
+      </c>
+      <c r="K72" t="s">
+        <v>394</v>
+      </c>
+      <c r="L72" t="s">
+        <v>395</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>396</v>
+      </c>
+      <c r="O72" t="s">
+        <v>100</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>344</v>
+      </c>
+      <c r="X72" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>398</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>399</v>
+      </c>
+      <c r="J73" t="s">
+        <v>400</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s">
+        <v>245</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>396</v>
+      </c>
+      <c r="O73" t="s">
+        <v>51</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>344</v>
+      </c>
+      <c r="X73" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>401</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>402</v>
+      </c>
+      <c r="J74" t="s">
+        <v>403</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s">
+        <v>245</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>404</v>
+      </c>
+      <c r="O74" t="s">
+        <v>51</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>344</v>
+      </c>
+      <c r="X74" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>405</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>406</v>
+      </c>
+      <c r="J75" t="s">
+        <v>407</v>
+      </c>
+      <c r="K75" t="s">
+        <v>408</v>
+      </c>
+      <c r="L75" t="s">
+        <v>409</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>404</v>
+      </c>
+      <c r="O75" t="s">
+        <v>100</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>344</v>
+      </c>
+      <c r="X75" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>411</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>412</v>
+      </c>
+      <c r="J76" t="s">
+        <v>413</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s">
+        <v>245</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>404</v>
+      </c>
+      <c r="O76" t="s">
+        <v>51</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>344</v>
+      </c>
+      <c r="X76" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>414</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>415</v>
+      </c>
+      <c r="J77" t="s">
+        <v>416</v>
+      </c>
+      <c r="K77" t="s">
+        <v>417</v>
+      </c>
+      <c r="L77" t="s">
+        <v>418</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>419</v>
+      </c>
+      <c r="O77" t="s">
+        <v>74</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>323</v>
+      </c>
+      <c r="X77" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>421</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>422</v>
+      </c>
+      <c r="J78" t="s">
+        <v>423</v>
+      </c>
+      <c r="K78" t="s">
+        <v>424</v>
+      </c>
+      <c r="L78" t="s">
+        <v>425</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>419</v>
+      </c>
+      <c r="O78" t="s">
+        <v>51</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>344</v>
+      </c>
+      <c r="X78" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>427</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>428</v>
+      </c>
+      <c r="J79" t="s">
+        <v>429</v>
+      </c>
+      <c r="K79" t="s">
+        <v>430</v>
+      </c>
+      <c r="L79" t="s">
+        <v>431</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>432</v>
+      </c>
+      <c r="O79" t="s">
+        <v>51</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>323</v>
+      </c>
+      <c r="X79" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>434</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>435</v>
+      </c>
+      <c r="J80" t="s">
+        <v>436</v>
+      </c>
+      <c r="K80" t="s">
+        <v>437</v>
+      </c>
+      <c r="L80" t="s">
+        <v>438</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>439</v>
+      </c>
+      <c r="O80" t="s">
+        <v>51</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>441</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J81" t="s">
+        <v>443</v>
+      </c>
+      <c r="K81" t="s">
+        <v>444</v>
+      </c>
+      <c r="L81" t="s">
+        <v>445</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>447</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>448</v>
+      </c>
+      <c r="J82" t="s">
+        <v>449</v>
+      </c>
+      <c r="K82" t="s">
+        <v>450</v>
+      </c>
+      <c r="L82" t="s">
+        <v>451</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>452</v>
+      </c>
+      <c r="O82" t="s">
+        <v>51</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>453</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>454</v>
+      </c>
+      <c r="J83" t="s">
+        <v>455</v>
+      </c>
+      <c r="K83" t="s">
+        <v>456</v>
+      </c>
+      <c r="L83" t="s">
+        <v>457</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>458</v>
+      </c>
+      <c r="O83" t="s">
+        <v>78</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>323</v>
+      </c>
+      <c r="X83" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>460</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>461</v>
+      </c>
+      <c r="J84" t="s">
+        <v>462</v>
+      </c>
+      <c r="K84" t="s">
+        <v>463</v>
+      </c>
+      <c r="L84" t="s">
+        <v>464</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>465</v>
+      </c>
+      <c r="O84" t="s">
+        <v>78</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>466</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>467</v>
+      </c>
+      <c r="J85" t="s">
+        <v>468</v>
+      </c>
+      <c r="K85" t="s">
+        <v>469</v>
+      </c>
+      <c r="L85" t="s">
+        <v>470</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>471</v>
+      </c>
+      <c r="O85" t="s">
+        <v>74</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>473</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>474</v>
+      </c>
+      <c r="J86" t="s">
+        <v>475</v>
+      </c>
+      <c r="K86" t="s">
+        <v>476</v>
+      </c>
+      <c r="L86" t="s">
+        <v>477</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>478</v>
+      </c>
+      <c r="O86" t="s">
+        <v>64</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
